--- a/logs/sprint-3-logs.xlsx
+++ b/logs/sprint-3-logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d987dc1895f9fb9d/School/SoftwareFoundations/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbens\dev\sosgame\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2518" documentId="11_F25DC773A252ABDACC1048B6515D41CC5ADE58FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E59F3ED-87F1-45CC-9140-F35EC69F1E8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33094FC-2648-4262-A254-7BBAFA0D86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="1995" windowWidth="16410" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -1104,12 +1104,118 @@
   <si>
     <t>Testing for the Move class</t>
   </si>
+  <si>
+    <t>Player, SimpleGame, Move</t>
+  </si>
+  <si>
+    <t>Player, Game, SimpleGame, Move</t>
+  </si>
+  <si>
+    <t>Player.MakeMove, SimpleGame.IsOver, Game.GetWinner</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. SimpleGame.IsOver checks if the game is over (no SOSs completed). Game.GetWinner will determine that there is no winner of no SOSs have been completed.</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. SimpleGame.IsOver checks if the game is over (no SOSs completed). The game is not over if an SOS is not completed yet and there is at least one more empty cell on the board.</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. SimpleGame.IsOver checks if the game is over (no SOSs completed). Since SimpleGame.IsOver will end the game once an SOS is made, Game.GetWinner will determine the winner by who had the most SOSs made (only 1 in this case).</t>
+  </si>
+  <si>
+    <t>*Content highlighted in GREEN is new content specific to this sprint</t>
+  </si>
+  <si>
+    <t>SimpleGameTest</t>
+  </si>
+  <si>
+    <t>SimpleGameTest.TestIsOver</t>
+  </si>
+  <si>
+    <t>Input: A SimpleGame where a player completes the first SOS
+Output: A SimpleGame that is over and its winner is the one who completed the first SOS</t>
+  </si>
+  <si>
+    <t>Input: A SimpleGame where a player does not complete an SOS or fill up the entire board
+Output: A SimpleGame that is not over and does not have a winner</t>
+  </si>
+  <si>
+    <t>Input: A SimpleGame where a player fills the last empty cell, and does not complete an SOS
+Output: A SimpleGame that is over and the winner is null because the game is a tie</t>
+  </si>
+  <si>
+    <t>Start a new simple game and complete an SOS</t>
+  </si>
+  <si>
+    <t>A message box will show telling the user that they are the winner because they completed the first SOS in a simple game</t>
+  </si>
+  <si>
+    <t>Start a new simple game and make moves that do not complete any SOSs</t>
+  </si>
+  <si>
+    <t>The turn should switch to the other player, and the game should not end</t>
+  </si>
+  <si>
+    <t>Start a new simple game and make moves until the board is filled and no SOSs are completed</t>
+  </si>
+  <si>
+    <t>A message box will show telling the user that the game ended in a tie and the game should end</t>
+  </si>
+  <si>
+    <t>Player. GeneralGame, Move</t>
+  </si>
+  <si>
+    <t>Player.MakeMove, GeneralGame.IsOver, Game.GetWinner</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. GeneralGame.IsOver checks if the general game is over (if no empty cells are remaining). Game.GetWinner will determine the winner by whoever has the most completes SOS lines.</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. GeneralGame.IsOver checks if the general game is over (if no empty cells are remaining). Game.GetWinner will determine if there is a draw if both players have the same number of completed SOS lines.</t>
+  </si>
+  <si>
+    <t>Player.MakeMove, GeneralGame.IsOver, Game.GetWinner, GeneralGame.NewTurn</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. GeneralGame.IsOver checks if the general game is over (if no empty cells are remaining). GeneralGame.NewTurn then does not switch turns because in a general game, the player gets a second turn after they complete an SOS.</t>
+  </si>
+  <si>
+    <t>Refer to 4.1 notes about general move making. GeneralGame.IsOver checks if the general game is over (if no empty cells are remaining). GeneralGame.NewTurn then switches turns because the current player did not complete an SOS.</t>
+  </si>
+  <si>
+    <t>GeneralGameTest</t>
+  </si>
+  <si>
+    <t>GeneralGameTest.TestIsOver</t>
+  </si>
+  <si>
+    <t>Input: A GeneralGame where the current player fills in the last empty square and they have the most completed SOS lines
+Output: A GeneralGame where the winner was the player who made the last move</t>
+  </si>
+  <si>
+    <t>Input: A GeneralGame where the current player completes an SOS line but does not fill in the last empty cell
+Output: A GeneralGame where the current player gets a second turn and the game is not over</t>
+  </si>
+  <si>
+    <t>Input: A GeneralGame where the current player complete an SOS line not does not fill in the last empty cell
+Output: A GeneralGame where the current player is the other player (switched turns) and the game is not over</t>
+  </si>
+  <si>
+    <t>Input: A GeneralGame where the current player fills in the last empty square to end the game and both players have the same amount of SOS lines
+Output: A GeneralGame that is over and resulted in a draw</t>
+  </si>
+  <si>
+    <t>Start a new general game and complete at least one SOS with the blue player. Then fill in the rest of the board without completing another SOS by the blue player or the red player.</t>
+  </si>
+  <si>
+    <t>A message box will show telling the user that the blue player won because they completed the most SOS lines</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1232,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1157,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,12 +1293,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1195,11 +1302,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1273,7 +1461,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1286,63 +1474,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1408,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0B81098-1FDF-4645-B026-CB44129665D9}" name="Table1" displayName="Table1" ref="C3:G11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="C3:G11" xr:uid="{F0B81098-1FDF-4645-B026-CB44129665D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0B81098-1FDF-4645-B026-CB44129665D9}" name="Table1" displayName="Table1" ref="C4:G12" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="C4:G12" xr:uid="{F0B81098-1FDF-4645-B026-CB44129665D9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2D6513DD-0333-4977-A611-BE7075C47F94}" name="ID" dataDxfId="59"/>
     <tableColumn id="2" xr3:uid="{EA0F2575-5222-4342-B2A6-3C0DB80B27F6}" name="User Story Name" dataDxfId="58"/>
@@ -1437,8 +1568,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D36D6B9B-3977-42E1-9D3A-2AD19D09F63F}" name="Table3" displayName="Table3" ref="B2:E22" totalsRowCount="1">
-  <autoFilter ref="B2:E21" xr:uid="{D36D6B9B-3977-42E1-9D3A-2AD19D09F63F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D36D6B9B-3977-42E1-9D3A-2AD19D09F63F}" name="Table3" displayName="Table3" ref="B4:E24" totalsRowCount="1">
+  <autoFilter ref="B4:E23" xr:uid="{D36D6B9B-3977-42E1-9D3A-2AD19D09F63F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DB279ACC-EE7F-4F69-9CDF-D6557C3D4B5F}" name="Source Code file Name"/>
     <tableColumn id="2" xr3:uid="{AD6AFAE9-FED0-4CE4-8020-D0B3CA4EBBA2}" name="Production code or test code?"/>
@@ -1450,83 +1581,83 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8613F438-F257-4CB7-8127-41336443AD8E}" name="Table5" displayName="Table5" ref="B4:I23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="B4:I23" xr:uid="{8613F438-F257-4CB7-8127-41336443AD8E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8613F438-F257-4CB7-8127-41336443AD8E}" name="Table5" displayName="Table5" ref="B4:I30" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="B4:I30" xr:uid="{8613F438-F257-4CB7-8127-41336443AD8E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FA37DF55-838D-4C91-A069-B4ADFBB114FF}" name="Story ID" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{B29593B2-9E50-4429-B73E-C267894CE53F}" name="Story Name" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{92144E97-78C1-4013-A5DC-A103AC987D08}" name="AC  ID" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{D34169B1-9605-4002-A5FC-55DBEC95591D}" name="AC Name" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{988A7BC5-9B7F-4EF4-9743-8B43044CA88C}" name="Classes" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{6962998B-BD75-44D2-8DE4-A3B7232E7D55}" name="Method Name(s) " dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{8D2432C4-71E4-445C-BF93-B65E87280890}" name="Status" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{1E10CD18-6EE0-4C57-A597-745A6F075070}" name="Notes (optional)" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{FA37DF55-838D-4C91-A069-B4ADFBB114FF}" name="Story ID" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{B29593B2-9E50-4429-B73E-C267894CE53F}" name="Story Name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{92144E97-78C1-4013-A5DC-A103AC987D08}" name="AC  ID" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{D34169B1-9605-4002-A5FC-55DBEC95591D}" name="AC Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{988A7BC5-9B7F-4EF4-9743-8B43044CA88C}" name="Classes" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6962998B-BD75-44D2-8DE4-A3B7232E7D55}" name="Method Name(s) " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8D2432C4-71E4-445C-BF93-B65E87280890}" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1E10CD18-6EE0-4C57-A597-745A6F075070}" name="Notes (optional)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}" name="Table6" displayName="Table6" ref="B3:H24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B3:H24" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}" name="Table6" displayName="Table6" ref="B3:H31" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="B3:H31" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D464094-4CAA-4F0A-8155-1005A5221EA7}" name="User Story ID" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{DFFD886B-21F5-4EE4-B1E5-B9C3CA981393}" name="User Story Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{588A5FF9-87E4-4232-A109-F00AE6EAB7C9}" name="AC ID" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A723F0C9-F396-4182-A5DB-A36687ECC464}" name="AC Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{04A7B299-94AB-4FB7-8A08-822F463E676E}" name="Classes " dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{263669AA-535C-4DA8-9C9A-A153A480F553}" name="Methods" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{9CFC3D83-A897-493C-A6B2-E4D0BA51E596}" name="Description" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{4D464094-4CAA-4F0A-8155-1005A5221EA7}" name="User Story ID" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{DFFD886B-21F5-4EE4-B1E5-B9C3CA981393}" name="User Story Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{588A5FF9-87E4-4232-A109-F00AE6EAB7C9}" name="AC ID" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{A723F0C9-F396-4182-A5DB-A36687ECC464}" name="AC Name" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{04A7B299-94AB-4FB7-8A08-822F463E676E}" name="Classes " dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{263669AA-535C-4DA8-9C9A-A153A480F553}" name="Methods" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{9CFC3D83-A897-493C-A6B2-E4D0BA51E596}" name="Description" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A6E1AD56-1E7E-4845-A6DC-51274101CF0C}" name="Table69" displayName="Table69" ref="B3:G19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B3:G19" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A6E1AD56-1E7E-4845-A6DC-51274101CF0C}" name="Table69" displayName="Table69" ref="B3:G26" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="B3:G26" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{301EF044-7DF2-4C9B-84A0-556EDC81E926}" name="User Story ID" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C53176BB-A112-4BC9-B43C-A9B819FD40BE}" name="User Story Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{75701814-A8A2-49F2-9634-F7BCE794B67D}" name="AC ID" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{DB2FE0C2-4D4A-4FA4-AD4F-2F9ACE0E2772}" name="AC Name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5FE8A6D0-B4D1-471F-9956-459A848C1C0F}" name="Test Case Input" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C8A349CF-C07B-44C4-B8D0-DD604B478305}" name="Test Oracle" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{301EF044-7DF2-4C9B-84A0-556EDC81E926}" name="User Story ID" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C53176BB-A112-4BC9-B43C-A9B819FD40BE}" name="User Story Name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{75701814-A8A2-49F2-9634-F7BCE794B67D}" name="AC ID" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{DB2FE0C2-4D4A-4FA4-AD4F-2F9ACE0E2772}" name="AC Name" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{5FE8A6D0-B4D1-471F-9956-459A848C1C0F}" name="Test Case Input" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{C8A349CF-C07B-44C4-B8D0-DD604B478305}" name="Test Oracle" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B2:F10" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7EE5C09C-96A5-4FC0-A9B8-78BA2D61269E}" name="Number" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B9AA6030-119E-443A-BB87-750EA97ECF8C}" name="Production Code Class.Method" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{49E194BC-903C-4C2D-AF6F-5DBC479ACEC9}" name="Test Code Class.Method" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9D11DD5C-4AE4-4A5E-8750-0E12B5A106FA}" name="Test Input" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8C3EBF53-C850-403C-B499-DB556E2F1A8B}" name="Expected Result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7EE5C09C-96A5-4FC0-A9B8-78BA2D61269E}" name="Number" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B9AA6030-119E-443A-BB87-750EA97ECF8C}" name="Production Code Class.Method" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{49E194BC-903C-4C2D-AF6F-5DBC479ACEC9}" name="Test Code Class.Method" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9D11DD5C-4AE4-4A5E-8750-0E12B5A106FA}" name="Test Input" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{8C3EBF53-C850-403C-B499-DB556E2F1A8B}" name="Expected Result" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}" name="Table4" displayName="Table4" ref="A1:L513" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}" name="Table4" displayName="Table4" ref="A1:L513" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:L513" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4EEA4C52-25A8-4AC1-AB64-130F1061C5C0}" name="Control Name" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{528C3ED4-7A70-4ADC-A6E5-12A55306EB86}" name="Control A" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{5A820990-15C8-451A-AA81-A4FDEEF27F37}" name="Control B" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{90491295-6B5C-44D5-9DBA-7086E88AC0F9}" name="Control C" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{1C3B15D1-EB06-4A22-B868-6BE0E2AA4E0D}" name="Control D" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{EB1C9048-B008-4402-8AFC-D23757742E6F}" name="In Replay" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{B62C2260-705C-4FA8-AAD7-D8CDD79F071C}" name="In Game" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{7DBAE433-F5CB-4355-AA42-DF22721518A4}" name="Is Red Turn" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{E7051258-A7C3-4770-BF85-6A7E897040FA}" name="Is Blue Computer" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{672057EC-F845-40E7-A956-72F68FFFCD00}" name="Is Red Computer" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{43FEA681-4DBD-4D98-B67C-A034045E34F1}" name="Is Accessible" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{72EB1685-1373-450C-B014-35BFBA34CCA1}" name="Notes" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4EEA4C52-25A8-4AC1-AB64-130F1061C5C0}" name="Control Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{528C3ED4-7A70-4ADC-A6E5-12A55306EB86}" name="Control A" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5A820990-15C8-451A-AA81-A4FDEEF27F37}" name="Control B" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{90491295-6B5C-44D5-9DBA-7086E88AC0F9}" name="Control C" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{1C3B15D1-EB06-4A22-B868-6BE0E2AA4E0D}" name="Control D" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{EB1C9048-B008-4402-8AFC-D23757742E6F}" name="In Replay" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B62C2260-705C-4FA8-AAD7-D8CDD79F071C}" name="In Game" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{7DBAE433-F5CB-4355-AA42-DF22721518A4}" name="Is Red Turn" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E7051258-A7C3-4770-BF85-6A7E897040FA}" name="Is Blue Computer" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{672057EC-F845-40E7-A956-72F68FFFCD00}" name="Is Red Computer" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{43FEA681-4DBD-4D98-B67C-A034045E34F1}" name="Is Accessible" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{72EB1685-1373-450C-B014-35BFBA34CCA1}" name="Notes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1795,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G11"/>
+  <dimension ref="C2:G12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,52 +1941,43 @@
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5">
         <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1863,33 +1985,33 @@
     </row>
     <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
       <c r="G6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5">
         <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1897,73 +2019,93 @@
     </row>
     <row r="8" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+      <c r="C9" s="18">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18">
+        <v>7</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="18">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="G10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
@@ -1976,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE3E03-8907-42B0-9BAE-1522C8D2D080}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,15 +2133,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2274,123 +2416,123 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="15">
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
+      <c r="G19" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16">
         <v>5.2</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
+      <c r="G20" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16">
         <v>5.3</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
+      <c r="G21" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="15">
         <v>6</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="16">
         <v>6.1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
+      <c r="G22" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16">
         <v>6.2</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
+      <c r="G23" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16">
         <v>6.3</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
+      <c r="G24" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16">
         <v>6.4</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -2527,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EAF2C1-6E6A-4763-B1B8-87DF226FCFDA}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B4:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,291 +2682,291 @@
     <col min="4" max="4" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-    </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4">
-        <v>371</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E5">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7">
-        <v>474</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13">
-        <v>147</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E15">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>322</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="E16">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
         <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="E17">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E18">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
         <v>263</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C21" t="s">
         <v>263</v>
       </c>
       <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
         <v>328</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <f>SUBTOTAL(109,Table3['# Lines of Code])</f>
         <v>2212</v>
       </c>
@@ -2839,138 +2981,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDFD0F4-363F-419F-B294-A046D2B416F4}">
-  <dimension ref="B4:I23"/>
+  <dimension ref="B4:I30"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>1.2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>1.3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
         <v>1.4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2987,16 +3129,16 @@
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3009,16 +3151,16 @@
       <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3031,16 +3173,16 @@
       <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="9" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3053,16 +3195,16 @@
       <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3079,16 +3221,16 @@
       <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3101,16 +3243,16 @@
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3127,16 +3269,16 @@
       <c r="E15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3149,16 +3291,16 @@
       <c r="E16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3171,16 +3313,16 @@
       <c r="E17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="9" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3193,16 +3335,16 @@
       <c r="E18" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3213,107 +3355,269 @@
       <c r="E19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+    <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D27" s="4">
         <v>8.1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I27" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H28" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H29" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
-      <c r="D23" s="11">
+    <row r="30" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
         <v>8.4</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H30" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I30" s="9" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3327,130 +3631,130 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A737DB-AD5B-4BBA-89D3-5F2C1DDAB7EB}">
-  <dimension ref="B3:H24"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H24"/>
+    <sheetView topLeftCell="A21" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>1.2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>1.3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>1.4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3467,13 +3771,13 @@
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3486,13 +3790,13 @@
       <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3505,13 +3809,13 @@
       <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3524,24 +3828,24 @@
       <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3558,13 +3862,13 @@
       <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3577,13 +3881,13 @@
       <c r="E15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3600,13 +3904,13 @@
       <c r="E16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="9" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3619,13 +3923,13 @@
       <c r="E17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3638,13 +3942,13 @@
       <c r="E18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="9" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3657,13 +3961,13 @@
       <c r="E19" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3676,87 +3980,230 @@
       <c r="E20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D28" s="4">
         <v>8.1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H28" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H29" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+    <row r="30" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D24" s="11">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D31" s="9">
         <v>8.4</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>260</v>
       </c>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,107 +4215,107 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF00AFE-AD52-4AB4-8B4B-3CE4DDE5BDEE}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G19"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="15" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>1.2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>1.3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>1.4</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3885,10 +4332,10 @@
       <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3901,10 +4348,10 @@
       <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3917,10 +4364,10 @@
       <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3937,10 +4384,10 @@
       <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3953,10 +4400,10 @@
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3973,10 +4420,10 @@
       <c r="E13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3989,10 +4436,10 @@
       <c r="E14" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4005,10 +4452,10 @@
       <c r="E15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4021,62 +4468,170 @@
       <c r="E16" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+    <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D24" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11">
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
         <v>8.4</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F26" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G26" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4092,172 +4647,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16732A8-5A44-436B-B9F8-A4670902CDC5}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="11" t="b">
+      <c r="F3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F4" s="11" t="b">
+      <c r="F4" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F5" s="11" t="b">
+      <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="11" t="b">
+      <c r="F6" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="11" t="b">
+      <c r="F10" s="9" t="b">
         <v>1</v>
       </c>
     </row>
